--- a/ProductMatch/MLI/ProductMatch_2014.xlsx
+++ b/ProductMatch/MLI/ProductMatch_2014.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fraol.tesfaye\Desktop\ProductMatch\MLI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F6ED113-D4C3-4C21-8095-690C3211E8BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{694E27BD-0AA8-4526-BC78-500F38EFF5A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{C8420F64-BE80-4808-BBFC-D0D031F2C0DC}"/>
   </bookViews>
@@ -31,22 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="46">
-  <si>
-    <t>Product Code</t>
-  </si>
-  <si>
-    <t>Product Description</t>
-  </si>
-  <si>
-    <t>CPC2.1 Code</t>
-  </si>
-  <si>
-    <t>CPC 2.1 Description</t>
-  </si>
-  <si>
-    <t>Comments</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="45">
   <si>
     <t>PRODUITS DE L'AGRICULTURE VIVRIERE</t>
   </si>
@@ -169,14 +154,34 @@
   </si>
   <si>
     <t>94; 95; 96; 97</t>
+  </si>
+  <si>
+    <t>ProductCode</t>
+  </si>
+  <si>
+    <t>ProductDescription</t>
+  </si>
+  <si>
+    <t>CPC21Code</t>
+  </si>
+  <si>
+    <t>CPC21Description</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -204,8 +209,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -523,37 +529,38 @@
   <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23:C25"/>
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="4" max="4" width="15.88671875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E1" s="1"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -561,10 +568,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -572,10 +579,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -583,10 +590,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -594,10 +601,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -605,10 +612,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
@@ -616,10 +623,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
@@ -627,10 +634,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C9" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
@@ -638,10 +645,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C10" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
@@ -649,10 +656,10 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C11" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
@@ -660,10 +667,10 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
@@ -671,10 +678,10 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C13" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
@@ -682,10 +689,10 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C14" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
@@ -693,10 +700,10 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
@@ -704,10 +711,10 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C16" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
@@ -715,10 +722,10 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C17" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
@@ -726,10 +733,10 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="C18" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
@@ -737,10 +744,10 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C19" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
@@ -748,10 +755,10 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C20" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
@@ -759,10 +766,10 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="C21" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
@@ -770,10 +777,10 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C22" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
